--- a/체크리스트생성기/result.xlsx
+++ b/체크리스트생성기/result.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,1842 +471,3865 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>쉽게 만날 수 없는 존재</t>
+          <t>[고대] 유피테르의 사자</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
+          <t>몬스터ID</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
+          <t>리소스ID</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>4</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>42286</v>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>m02185</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
+          <t>mDesc</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>+6 광대의 쌍검</t>
+          <t>보스_고대_엘테르_유피테르</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
+          <t>등급</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>나이트</t>
+          <t>보스</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>42280</v>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>보스</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>6</v>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>근접</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
+          <t>선공</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>희귀</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>60</v>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>8</v>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>레벨</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
+          <t>경험치</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>5</v>
+        <v>11731808</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
+          <t>유피 2단계</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>20</v>
+        <v>122010803</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
+          <t>최소 골드</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
+          <t>최대 골드</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>4</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
+          <t>mDPV</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>212466</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>+6 나인테일의 활</t>
-        </is>
+          <t>mRPV</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>아처</t>
-        </is>
+          <t>mMPV</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
+          <t>mDDV</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>212460</v>
+        <v>686.4</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
+          <t>mRDV</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>6</v>
+        <v>686.4</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>739.1999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
+          <t>mHIT</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>60</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
+          <t>mMinD</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>8</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>mMaxD</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>5</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
+          <t>mHP</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>5</v>
+        <v>23050230</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
+          <t>mMP</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>20</v>
+        <v>15124.5</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
+          <t>mHPRegen</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
+          <t>mMPRegen</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
+          <t>공격 속도</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>92266</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>+6 알케미스트의 지팡이</t>
-        </is>
+          <t>이동 속도</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>위저드</t>
-        </is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
+          <t>공격 거리</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>92260</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
+          <t>이동 거리</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
+          <t>추격 거리</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
+          <t>mFMinD</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>8</v>
+        <v>243.2</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>mFMaxD</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>5</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>[고대] 지배당한 헤이크단</t>
+        </is>
+      </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
+          <t>몬스터ID</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>5</v>
+        <v>16519</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
+          <t>리소스ID</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>20</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>1</v>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>m02180</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>4</v>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_천사의노래숲_근거리_크리처</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>12586</v>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
+          <t>슬레인</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>+6 삐에로의 단검</t>
+          <t>크리처</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
+          <t>공격 타입</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>어쌔신</t>
+          <t>근접</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>12580</v>
+          <t>선공</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>6</v>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
+          <t>선스킬</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>희귀</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
+          <t>레벨</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
+          <t>경험치</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>8</v>
+        <v>13265</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>유피 2단계</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>5</v>
+        <v>137956</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
+          <t>최소 골드</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>5</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
+          <t>최대 골드</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>20</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>날카로운 투구가 이끄는 대로</t>
-        </is>
-      </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
+          <t>mDPV</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
+          <t>mRPV</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>4</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
+          <t>mMPV</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>32166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>+6 넵튠의 대검</t>
-        </is>
+          <t>mDDV</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>598</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>나이트</t>
-        </is>
+          <t>mRDV</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>609</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
+          <t>mMDV</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>32160</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
+          <t>mHIT</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>6</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
+          <t>mMinD</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>421.1200000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
+          <t>mMaxD</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
-        <v>60</v>
+        <v>538.704</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
+          <t>mHP</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
-        <v>8</v>
+        <v>6596.1</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>mMP</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
-        <v>5</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
+          <t>mHPRegen</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
+          <t>mMPRegen</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
+          <t>공격 속도</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
-        <v>2</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
+          <t>이동 속도</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
+          <t>시야 거리</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
-        <v>212266</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>+6 넵튠 아처의 활</t>
-        </is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>아처</t>
-        </is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
+          <t>드롭 범위</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>212260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
+          <t>추격 거리</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
+          <t>mFMinD</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>52.64000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
+          <t>mFMaxD</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
-        <v>60</v>
+        <v>159.856</v>
       </c>
     </row>
     <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>[고대] 마력의 엘더스톤</t>
+        </is>
+      </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
+          <t>몬스터ID</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>8</v>
+        <v>16520</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>리소스ID</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>5</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="n">
-        <v>5</v>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>m02181</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="n">
-        <v>20</v>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_천사의노래숲_원거리_크리처</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="n">
-        <v>2</v>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="n">
-        <v>4</v>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>크리처</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="n">
-        <v>92066</v>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>원거리</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
+          <t>선공</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>+6 에리스의 지팡이</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
+          <t>고정형</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>위저드</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="n">
-        <v>92060</v>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
+          <t>레벨</t>
         </is>
       </c>
       <c r="C86" s="3" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
+          <t>경험치</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>14041</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
+          <t>유피 2단계</t>
         </is>
       </c>
       <c r="C88" s="3" t="n">
-        <v>60</v>
+        <v>146026</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
+          <t>최소 골드</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
-        <v>8</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>최대 골드</t>
         </is>
       </c>
       <c r="C90" s="3" t="n">
-        <v>5</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
+          <t>mDPV</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
+          <t>mRPV</t>
         </is>
       </c>
       <c r="C92" s="3" t="n">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>도감 번호</t>
+          <t>mMPV</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>길드 레벨</t>
+          <t>mDDV</t>
         </is>
       </c>
       <c r="C94" s="3" t="n">
-        <v>4</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>아이템 ID</t>
+          <t>mRDV</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>102126</v>
+        <v>637</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>아이템 명</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>+6 넵튠 슬레이어의 카타르</t>
-        </is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>738</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>클래스</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>어쌔신</t>
-        </is>
+          <t>mHIT</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>FakeID</t>
+          <t>mMinD</t>
         </is>
       </c>
       <c r="C98" s="3" t="n">
-        <v>102120</v>
+        <v>434.7</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>안전강화</t>
+          <t>mMaxD</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
-        <v>6</v>
+        <v>542.1839999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>등급</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
+          <t>mHP</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>6064.799999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>등록 성공 확률</t>
+          <t>mMP</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
-        <v>60</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>예상 무기 소모 횟수
-(무기 강화 주문서만 사용)</t>
+          <t>mHPRegen</t>
         </is>
       </c>
       <c r="C102" s="3" t="n">
-        <v>8</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">예상 무기 소모 횟수
-(축 + 고대 + 강화 포인트) </t>
+          <t>mMPRegen</t>
         </is>
       </c>
       <c r="C103" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여
-성공 확률</t>
+          <t>공격 속도</t>
         </is>
       </c>
       <c r="C104" s="3" t="n">
-        <v>5</v>
+        <v>700</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>영혼 부여 성공에 
-필요한 영혼석 개수</t>
+          <t>이동 속도</t>
         </is>
       </c>
       <c r="C105" s="3" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>추격 거리</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>도감 번호</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="n">
-        <v>72166</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>+6 레오넬의 창</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>나이트</t>
-        </is>
-      </c>
-    </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>mFMinD</t>
         </is>
       </c>
       <c r="C111" s="3" t="n">
-        <v>72160</v>
+        <v>54.33750000000001</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>mFMaxD</t>
         </is>
       </c>
       <c r="C112" s="3" t="n">
-        <v>6</v>
+        <v>155.2426666666667</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
+          <t>[고대] 광휘의 엘윈더</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>몬스터ID</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>16521</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>리소스ID</t>
         </is>
       </c>
       <c r="C114" s="3" t="n">
-        <v>60</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="n">
-        <v>8</v>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>m02186</t>
+        </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="n">
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_광휘의숲_근거리_크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>근접</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>선공</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>레벨</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>경험치</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>유피 2단계</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>140400</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>최소 골드</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>최대 골드</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>mDPV</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>mRPV</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>mMPV</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>mDDV</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>mRDV</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>mHIT</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>mMinD</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>mMaxD</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>569.9079999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>mHP</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>mMP</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>mHPRegen</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>mMPRegen</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>공격 속도</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>이동 속도</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="n">
+    <row r="146">
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>추격 거리</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="n">
-        <v>202206</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>+6 아델리아의 라이플</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>아처</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="n">
-        <v>202200</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="n">
-        <v>82306</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>+6 이안의 완드</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>위저드</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="n">
-        <v>82300</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t>희귀</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C142" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C147" s="3" t="n">
-        <v>12566</v>
-      </c>
-    </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C148" s="3" t="inlineStr">
-        <is>
-          <t>+6 팔란의 단검</t>
-        </is>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>mFMinD</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>52.75</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C149" s="3" t="inlineStr">
-        <is>
-          <t>어쌔신</t>
-        </is>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>mFMaxD</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>163.3231111111111</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>타지에서 모인 이방인들</t>
+          <t>[고대] 광휘의 베이크</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>몬스터ID</t>
         </is>
       </c>
       <c r="C150" s="3" t="n">
-        <v>12560</v>
+        <v>16522</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>리소스ID</t>
         </is>
       </c>
       <c r="C151" s="3" t="n">
-        <v>6</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Prefab</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>희귀</t>
+          <t>m02187</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="n">
-        <v>60</v>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_광휘의숲_근거리_크리처</t>
+        </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="n">
-        <v>8</v>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="n">
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>근접</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>선공</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>레벨</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>경험치</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="n">
+        <v>13732</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>유피 2단계</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>142812</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>최소 골드</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>최대 골드</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>mDPV</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>mRPV</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>mMPV</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>mDDV</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>mRDV</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>mHIT</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>mMinD</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="n">
+        <v>415.8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>mMaxD</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>536.3839999999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>mHP</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>mMP</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>mHPRegen</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>mMPRegen</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>공격 속도</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>이동 속도</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="n">
+    <row r="183">
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>추격 거리</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>mFMinD</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>51.975</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>mFMaxD</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="n">
+        <v>154.5982222222222</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>[고대] 광휘의 엘로라</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>몬스터ID</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>16523</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>리소스ID</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>m02188</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_광휘의숲_원거리_크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>원거리</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>선공</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>레벨</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>경험치</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>14022</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>유피 2단계</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>145828</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>최소 골드</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>최대 골드</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>mDPV</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>mRPV</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>mMPV</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>mDDV</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>mRDV</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>mHIT</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>mMinD</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>419.76</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>mMaxD</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>574.2464</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>mHP</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>mMP</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>mHPRegen</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>mMPRegen</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>공격 속도</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>이동 속도</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>타지에서 모인 이방인들</t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="n">
+    <row r="220">
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>추격 거리</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="n">
         <v>20</v>
       </c>
     </row>
+    <row r="222">
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>mFMinD</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="n">
+        <v>52.47000000000001</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>mFMaxD</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="n">
+        <v>153.8051555555556</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>[고대] 지배당한 나투라</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>몬스터ID</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="n">
+        <v>16524</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>리소스ID</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>m02184</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_마력의숲_근거리_크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>근접</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>선공</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>레벨</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>경험치</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="n">
+        <v>13722</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>유피 2단계</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="n">
+        <v>142708</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>최소 골드</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>최대 골드</t>
+        </is>
+      </c>
+      <c r="C238" s="3" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>mDPV</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>mRPV</t>
+        </is>
+      </c>
+      <c r="C240" s="3" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>mMPV</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>mDDV</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>mRDV</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>mHIT</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>mMinD</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="n">
+        <v>413.6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>mMaxD</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="n">
+        <v>538.704</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>mHP</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="n">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>mMP</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>mHPRegen</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>mMPRegen</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>공격 속도</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>이동 속도</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>추격 거리</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>mFMinD</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>mFMaxD</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="n">
+        <v>154.856</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>[고대] 마력의 엘디온</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>몬스터ID</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="n">
+        <v>16525</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>리소스ID</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="n">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="inlineStr">
+        <is>
+          <t>m02182</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_마력의숲_근거리_크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t>크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr">
+        <is>
+          <t>근접</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>선공</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C270" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>레벨</t>
+        </is>
+      </c>
+      <c r="C271" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>경험치</t>
+        </is>
+      </c>
+      <c r="C272" s="3" t="n">
+        <v>13717</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>유피 2단계</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="n">
+        <v>142656</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>최소 골드</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>최대 골드</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>mDPV</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>mRPV</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>mMPV</t>
+        </is>
+      </c>
+      <c r="C278" s="3" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="2" t="inlineStr">
+        <is>
+          <t>mDDV</t>
+        </is>
+      </c>
+      <c r="C279" s="3" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>mRDV</t>
+        </is>
+      </c>
+      <c r="C280" s="3" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C281" s="3" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>mHIT</t>
+        </is>
+      </c>
+      <c r="C282" s="3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="2" t="inlineStr">
+        <is>
+          <t>mMinD</t>
+        </is>
+      </c>
+      <c r="C283" s="3" t="n">
+        <v>417.78</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>mMaxD</t>
+        </is>
+      </c>
+      <c r="C284" s="3" t="n">
+        <v>549.7935999999999</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="2" t="inlineStr">
+        <is>
+          <t>mHP</t>
+        </is>
+      </c>
+      <c r="C285" s="3" t="n">
+        <v>7595</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>mMP</t>
+        </is>
+      </c>
+      <c r="C286" s="3" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>mHPRegen</t>
+        </is>
+      </c>
+      <c r="C287" s="3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>mMPRegen</t>
+        </is>
+      </c>
+      <c r="C288" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="2" t="inlineStr">
+        <is>
+          <t>공격 속도</t>
+        </is>
+      </c>
+      <c r="C289" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>이동 속도</t>
+        </is>
+      </c>
+      <c r="C290" s="3" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="2" t="inlineStr">
+        <is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C291" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C292" s="3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" s="2" t="inlineStr">
+        <is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C293" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C294" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" s="2" t="inlineStr">
+        <is>
+          <t>추격 거리</t>
+        </is>
+      </c>
+      <c r="C295" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>mFMinD</t>
+        </is>
+      </c>
+      <c r="C296" s="3" t="n">
+        <v>52.2225</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" s="2" t="inlineStr">
+        <is>
+          <t>mFMaxD</t>
+        </is>
+      </c>
+      <c r="C297" s="3" t="n">
+        <v>156.0881777777778</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>[고대] 마력의 엘자드</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>몬스터ID</t>
+        </is>
+      </c>
+      <c r="C298" s="3" t="n">
+        <v>16526</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" s="2" t="inlineStr">
+        <is>
+          <t>리소스ID</t>
+        </is>
+      </c>
+      <c r="C299" s="3" t="n">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>Prefab</t>
+        </is>
+      </c>
+      <c r="C300" s="3" t="inlineStr">
+        <is>
+          <t>m02183</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" s="2" t="inlineStr">
+        <is>
+          <t>mDesc</t>
+        </is>
+      </c>
+      <c r="C301" s="3" t="inlineStr">
+        <is>
+          <t>고대_엘테르_마력의숲_원거리_크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>등급</t>
+        </is>
+      </c>
+      <c r="C302" s="3" t="inlineStr">
+        <is>
+          <t>일반</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" s="2" t="inlineStr">
+        <is>
+          <t>슬레인</t>
+        </is>
+      </c>
+      <c r="C303" s="3" t="inlineStr">
+        <is>
+          <t>크리처</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" s="2" t="inlineStr">
+        <is>
+          <t>공격 타입</t>
+        </is>
+      </c>
+      <c r="C304" s="3" t="inlineStr">
+        <is>
+          <t>원거리</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" s="2" t="inlineStr">
+        <is>
+          <t>선공</t>
+        </is>
+      </c>
+      <c r="C305" s="3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" s="2" t="inlineStr">
+        <is>
+          <t>고정형</t>
+        </is>
+      </c>
+      <c r="C306" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" s="2" t="inlineStr">
+        <is>
+          <t>선스킬</t>
+        </is>
+      </c>
+      <c r="C307" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" s="2" t="inlineStr">
+        <is>
+          <t>레벨</t>
+        </is>
+      </c>
+      <c r="C308" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" s="2" t="inlineStr">
+        <is>
+          <t>경험치</t>
+        </is>
+      </c>
+      <c r="C309" s="3" t="n">
+        <v>14481</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>유피 2단계</t>
+        </is>
+      </c>
+      <c r="C310" s="3" t="n">
+        <v>150602</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" s="2" t="inlineStr">
+        <is>
+          <t>최소 골드</t>
+        </is>
+      </c>
+      <c r="C311" s="3" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t>최대 골드</t>
+        </is>
+      </c>
+      <c r="C312" s="3" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" s="2" t="inlineStr">
+        <is>
+          <t>mDPV</t>
+        </is>
+      </c>
+      <c r="C313" s="3" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" s="2" t="inlineStr">
+        <is>
+          <t>mRPV</t>
+        </is>
+      </c>
+      <c r="C314" s="3" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" s="2" t="inlineStr">
+        <is>
+          <t>mMPV</t>
+        </is>
+      </c>
+      <c r="C315" s="3" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>mDDV</t>
+        </is>
+      </c>
+      <c r="C316" s="3" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" s="2" t="inlineStr">
+        <is>
+          <t>mRDV</t>
+        </is>
+      </c>
+      <c r="C317" s="3" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>mMDV</t>
+        </is>
+      </c>
+      <c r="C318" s="3" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>mHIT</t>
+        </is>
+      </c>
+      <c r="C319" s="3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>mMinD</t>
+        </is>
+      </c>
+      <c r="C320" s="3" t="n">
+        <v>426.76</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" s="2" t="inlineStr">
+        <is>
+          <t>mMaxD</t>
+        </is>
+      </c>
+      <c r="C321" s="3" t="n">
+        <v>554.944</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>mHP</t>
+        </is>
+      </c>
+      <c r="C322" s="3" t="n">
+        <v>6451.200000000001</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" s="2" t="inlineStr">
+        <is>
+          <t>mMP</t>
+        </is>
+      </c>
+      <c r="C323" s="3" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>mHPRegen</t>
+        </is>
+      </c>
+      <c r="C324" s="3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>mMPRegen</t>
+        </is>
+      </c>
+      <c r="C325" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>공격 속도</t>
+        </is>
+      </c>
+      <c r="C326" s="3" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" s="2" t="inlineStr">
+        <is>
+          <t>이동 속도</t>
+        </is>
+      </c>
+      <c r="C327" s="3" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>시야 거리</t>
+        </is>
+      </c>
+      <c r="C328" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" s="2" t="inlineStr">
+        <is>
+          <t>공격 거리</t>
+        </is>
+      </c>
+      <c r="C329" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>이동 거리</t>
+        </is>
+      </c>
+      <c r="C330" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" s="2" t="inlineStr">
+        <is>
+          <t>드롭 범위</t>
+        </is>
+      </c>
+      <c r="C331" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>추격 거리</t>
+        </is>
+      </c>
+      <c r="C332" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" s="2" t="inlineStr">
+        <is>
+          <t>mFMinD</t>
+        </is>
+      </c>
+      <c r="C333" s="3" t="n">
+        <v>53.345</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>mFMaxD</t>
+        </is>
+      </c>
+      <c r="C334" s="3" t="n">
+        <v>161.6604444444444</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="B143"/>
-    <mergeCell ref="B92"/>
-    <mergeCell ref="B30"/>
-    <mergeCell ref="B124"/>
+  <mergeCells count="341">
     <mergeCell ref="B6"/>
-    <mergeCell ref="B20"/>
     <mergeCell ref="B133"/>
-    <mergeCell ref="B142"/>
-    <mergeCell ref="B85"/>
-    <mergeCell ref="B80"/>
-    <mergeCell ref="B94"/>
+    <mergeCell ref="B204"/>
+    <mergeCell ref="B198"/>
+    <mergeCell ref="B296"/>
     <mergeCell ref="B4"/>
-    <mergeCell ref="B126"/>
     <mergeCell ref="B75"/>
     <mergeCell ref="B135"/>
+    <mergeCell ref="B306"/>
     <mergeCell ref="B62"/>
-    <mergeCell ref="B144"/>
-    <mergeCell ref="B54"/>
-    <mergeCell ref="B125"/>
+    <mergeCell ref="B233"/>
+    <mergeCell ref="B227"/>
     <mergeCell ref="B72"/>
-    <mergeCell ref="B46"/>
-    <mergeCell ref="B56"/>
-    <mergeCell ref="B96"/>
+    <mergeCell ref="B199"/>
+    <mergeCell ref="B291"/>
     <mergeCell ref="B70"/>
-    <mergeCell ref="B48"/>
-    <mergeCell ref="B111"/>
-    <mergeCell ref="B145"/>
-    <mergeCell ref="B120"/>
-    <mergeCell ref="B98"/>
-    <mergeCell ref="B8"/>
+    <mergeCell ref="B228"/>
+    <mergeCell ref="B293"/>
+    <mergeCell ref="B322"/>
     <mergeCell ref="B17"/>
-    <mergeCell ref="B73"/>
     <mergeCell ref="B88"/>
     <mergeCell ref="B82"/>
-    <mergeCell ref="B147"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="B137"/>
     <mergeCell ref="B19"/>
     <mergeCell ref="B146"/>
+    <mergeCell ref="B317"/>
+    <mergeCell ref="B217"/>
     <mergeCell ref="B65"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="B74"/>
-    <mergeCell ref="B68"/>
     <mergeCell ref="B83"/>
-    <mergeCell ref="B139"/>
+    <mergeCell ref="B319"/>
     <mergeCell ref="B123"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="B36"/>
-    <mergeCell ref="B76"/>
-    <mergeCell ref="B45"/>
+    <mergeCell ref="B221"/>
     <mergeCell ref="B110"/>
-    <mergeCell ref="B113"/>
-    <mergeCell ref="B100"/>
-    <mergeCell ref="B109"/>
-    <mergeCell ref="B47"/>
     <mergeCell ref="B141"/>
-    <mergeCell ref="B59"/>
-    <mergeCell ref="B22"/>
-    <mergeCell ref="B115"/>
-    <mergeCell ref="B150"/>
-    <mergeCell ref="B31"/>
-    <mergeCell ref="B102"/>
     <mergeCell ref="B12"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="B86"/>
-    <mergeCell ref="B39"/>
-    <mergeCell ref="B152"/>
-    <mergeCell ref="B101"/>
+    <mergeCell ref="B248"/>
+    <mergeCell ref="B297"/>
+    <mergeCell ref="B235"/>
     <mergeCell ref="B14"/>
     <mergeCell ref="B136"/>
-    <mergeCell ref="B23"/>
+    <mergeCell ref="B312"/>
+    <mergeCell ref="B299"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="B78"/>
-    <mergeCell ref="B87"/>
-    <mergeCell ref="B128"/>
-    <mergeCell ref="B49"/>
-    <mergeCell ref="B64"/>
-    <mergeCell ref="B33"/>
-    <mergeCell ref="B51"/>
-    <mergeCell ref="B114"/>
-    <mergeCell ref="B63"/>
-    <mergeCell ref="B41"/>
+    <mergeCell ref="B249"/>
+    <mergeCell ref="B243"/>
+    <mergeCell ref="B314"/>
     <mergeCell ref="B154"/>
-    <mergeCell ref="B35"/>
-    <mergeCell ref="B50"/>
-    <mergeCell ref="B138"/>
+    <mergeCell ref="B325"/>
     <mergeCell ref="B91"/>
     <mergeCell ref="B25"/>
-    <mergeCell ref="A54:A105"/>
     <mergeCell ref="B156"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="B27"/>
-    <mergeCell ref="B140"/>
+    <mergeCell ref="B327"/>
     <mergeCell ref="B155"/>
     <mergeCell ref="B93"/>
     <mergeCell ref="B149"/>
-    <mergeCell ref="B130"/>
+    <mergeCell ref="B220"/>
+    <mergeCell ref="B247"/>
+    <mergeCell ref="B262"/>
+    <mergeCell ref="B151"/>
+    <mergeCell ref="B182"/>
+    <mergeCell ref="B38"/>
+    <mergeCell ref="B84"/>
+    <mergeCell ref="B246"/>
+    <mergeCell ref="B40"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="B313"/>
+    <mergeCell ref="B104"/>
+    <mergeCell ref="B79"/>
+    <mergeCell ref="B315"/>
+    <mergeCell ref="B302"/>
+    <mergeCell ref="B106"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="B252"/>
+    <mergeCell ref="B208"/>
+    <mergeCell ref="B210"/>
+    <mergeCell ref="B318"/>
+    <mergeCell ref="B170"/>
+    <mergeCell ref="B157"/>
+    <mergeCell ref="B328"/>
+    <mergeCell ref="B333"/>
+    <mergeCell ref="B234"/>
+    <mergeCell ref="B34"/>
+    <mergeCell ref="B172"/>
+    <mergeCell ref="B28"/>
+    <mergeCell ref="A261:A297"/>
+    <mergeCell ref="B270"/>
+    <mergeCell ref="B99"/>
+    <mergeCell ref="B186"/>
+    <mergeCell ref="B257"/>
+    <mergeCell ref="B92"/>
+    <mergeCell ref="B30"/>
+    <mergeCell ref="B94"/>
+    <mergeCell ref="B265"/>
+    <mergeCell ref="B54"/>
+    <mergeCell ref="B321"/>
+    <mergeCell ref="B125"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="B323"/>
+    <mergeCell ref="B176"/>
+    <mergeCell ref="B145"/>
+    <mergeCell ref="B120"/>
+    <mergeCell ref="B181"/>
+    <mergeCell ref="B147"/>
+    <mergeCell ref="B245"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="B36"/>
+    <mergeCell ref="B207"/>
+    <mergeCell ref="B113"/>
+    <mergeCell ref="B173"/>
+    <mergeCell ref="B100"/>
+    <mergeCell ref="B271"/>
+    <mergeCell ref="B115"/>
+    <mergeCell ref="B31"/>
+    <mergeCell ref="B202"/>
+    <mergeCell ref="B102"/>
+    <mergeCell ref="B273"/>
+    <mergeCell ref="B39"/>
+    <mergeCell ref="B191"/>
+    <mergeCell ref="B178"/>
+    <mergeCell ref="B128"/>
+    <mergeCell ref="B255"/>
+    <mergeCell ref="B226"/>
+    <mergeCell ref="B49"/>
+    <mergeCell ref="B192"/>
+    <mergeCell ref="B284"/>
+    <mergeCell ref="B222"/>
+    <mergeCell ref="B63"/>
+    <mergeCell ref="B197"/>
+    <mergeCell ref="B50"/>
+    <mergeCell ref="B286"/>
+    <mergeCell ref="B261"/>
+    <mergeCell ref="B27"/>
+    <mergeCell ref="B166"/>
+    <mergeCell ref="B116"/>
+    <mergeCell ref="B103"/>
+    <mergeCell ref="B174"/>
+    <mergeCell ref="B230"/>
+    <mergeCell ref="B205"/>
+    <mergeCell ref="B168"/>
+    <mergeCell ref="B118"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="B169"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="B129"/>
+    <mergeCell ref="B200"/>
+    <mergeCell ref="B134"/>
+    <mergeCell ref="B194"/>
+    <mergeCell ref="B121"/>
+    <mergeCell ref="B292"/>
+    <mergeCell ref="B71"/>
+    <mergeCell ref="B131"/>
+    <mergeCell ref="B236"/>
+    <mergeCell ref="A298:A334"/>
+    <mergeCell ref="B307"/>
+    <mergeCell ref="B58"/>
+    <mergeCell ref="B52"/>
+    <mergeCell ref="B223"/>
+    <mergeCell ref="B294"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="B195"/>
+    <mergeCell ref="B60"/>
+    <mergeCell ref="B231"/>
+    <mergeCell ref="B287"/>
+    <mergeCell ref="B53"/>
+    <mergeCell ref="B289"/>
+    <mergeCell ref="B241"/>
+    <mergeCell ref="B124"/>
+    <mergeCell ref="B142"/>
+    <mergeCell ref="B80"/>
+    <mergeCell ref="B213"/>
+    <mergeCell ref="B305"/>
+    <mergeCell ref="B188"/>
+    <mergeCell ref="B126"/>
+    <mergeCell ref="B218"/>
+    <mergeCell ref="B144"/>
+    <mergeCell ref="B242"/>
+    <mergeCell ref="B190"/>
+    <mergeCell ref="B46"/>
+    <mergeCell ref="B282"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="B219"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B73"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="B137"/>
+    <mergeCell ref="B308"/>
+    <mergeCell ref="B74"/>
+    <mergeCell ref="B68"/>
+    <mergeCell ref="B201"/>
+    <mergeCell ref="B139"/>
+    <mergeCell ref="B239"/>
+    <mergeCell ref="B310"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="B76"/>
+    <mergeCell ref="B203"/>
+    <mergeCell ref="B232"/>
+    <mergeCell ref="B150"/>
+    <mergeCell ref="B326"/>
+    <mergeCell ref="B215"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="B263"/>
+    <mergeCell ref="B152"/>
+    <mergeCell ref="B244"/>
+    <mergeCell ref="A150:A186"/>
+    <mergeCell ref="B229"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="B283"/>
+    <mergeCell ref="B87"/>
+    <mergeCell ref="B258"/>
+    <mergeCell ref="B298"/>
+    <mergeCell ref="B285"/>
+    <mergeCell ref="B260"/>
+    <mergeCell ref="B64"/>
+    <mergeCell ref="B51"/>
+    <mergeCell ref="B163"/>
+    <mergeCell ref="B138"/>
+    <mergeCell ref="B309"/>
+    <mergeCell ref="B209"/>
+    <mergeCell ref="B165"/>
+    <mergeCell ref="B140"/>
+    <mergeCell ref="B311"/>
+    <mergeCell ref="B238"/>
+    <mergeCell ref="A113:A149"/>
+    <mergeCell ref="A2:A38"/>
     <mergeCell ref="B77"/>
     <mergeCell ref="B11"/>
+    <mergeCell ref="B253"/>
+    <mergeCell ref="B240"/>
+    <mergeCell ref="B29"/>
+    <mergeCell ref="B158"/>
+    <mergeCell ref="B329"/>
+    <mergeCell ref="B316"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="B95"/>
+    <mergeCell ref="B266"/>
+    <mergeCell ref="B89"/>
+    <mergeCell ref="B160"/>
+    <mergeCell ref="B331"/>
+    <mergeCell ref="B32"/>
+    <mergeCell ref="B26"/>
+    <mergeCell ref="B330"/>
+    <mergeCell ref="B97"/>
+    <mergeCell ref="B153"/>
+    <mergeCell ref="B268"/>
+    <mergeCell ref="B224"/>
+    <mergeCell ref="B324"/>
+    <mergeCell ref="B90"/>
+    <mergeCell ref="B184"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B148"/>
+    <mergeCell ref="B179"/>
+    <mergeCell ref="B250"/>
+    <mergeCell ref="B44"/>
+    <mergeCell ref="B37"/>
+    <mergeCell ref="B304"/>
+    <mergeCell ref="B279"/>
+    <mergeCell ref="B108"/>
+    <mergeCell ref="B254"/>
+    <mergeCell ref="A39:A75"/>
+    <mergeCell ref="B143"/>
+    <mergeCell ref="B281"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="B85"/>
+    <mergeCell ref="B256"/>
+    <mergeCell ref="B159"/>
+    <mergeCell ref="B96"/>
+    <mergeCell ref="B167"/>
+    <mergeCell ref="B272"/>
+    <mergeCell ref="B161"/>
+    <mergeCell ref="B332"/>
+    <mergeCell ref="B259"/>
+    <mergeCell ref="B111"/>
+    <mergeCell ref="B98"/>
+    <mergeCell ref="B225"/>
+    <mergeCell ref="B274"/>
+    <mergeCell ref="B175"/>
+    <mergeCell ref="B162"/>
+    <mergeCell ref="B267"/>
+    <mergeCell ref="B269"/>
+    <mergeCell ref="B187"/>
+    <mergeCell ref="B251"/>
+    <mergeCell ref="B189"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="B216"/>
+    <mergeCell ref="A187:A223"/>
+    <mergeCell ref="B109"/>
+    <mergeCell ref="B280"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="B193"/>
+    <mergeCell ref="B264"/>
+    <mergeCell ref="B320"/>
+    <mergeCell ref="B295"/>
+    <mergeCell ref="B86"/>
+    <mergeCell ref="B101"/>
+    <mergeCell ref="B211"/>
+    <mergeCell ref="B300"/>
+    <mergeCell ref="B183"/>
+    <mergeCell ref="B177"/>
+    <mergeCell ref="B33"/>
+    <mergeCell ref="B275"/>
+    <mergeCell ref="B164"/>
+    <mergeCell ref="B114"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B212"/>
+    <mergeCell ref="B35"/>
+    <mergeCell ref="B206"/>
+    <mergeCell ref="B277"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A76:A112"/>
+    <mergeCell ref="B180"/>
+    <mergeCell ref="B130"/>
     <mergeCell ref="B117"/>
-    <mergeCell ref="B151"/>
-    <mergeCell ref="A2:A53"/>
     <mergeCell ref="B67"/>
     <mergeCell ref="B61"/>
     <mergeCell ref="B132"/>
     <mergeCell ref="B119"/>
-    <mergeCell ref="B116"/>
-    <mergeCell ref="B29"/>
+    <mergeCell ref="B290"/>
     <mergeCell ref="B69"/>
-    <mergeCell ref="B38"/>
-    <mergeCell ref="B103"/>
+    <mergeCell ref="B196"/>
     <mergeCell ref="B112"/>
-    <mergeCell ref="B84"/>
-    <mergeCell ref="B118"/>
+    <mergeCell ref="B288"/>
     <mergeCell ref="B127"/>
-    <mergeCell ref="B40"/>
-    <mergeCell ref="B15"/>
-    <mergeCell ref="B55"/>
-    <mergeCell ref="B24"/>
-    <mergeCell ref="B95"/>
-    <mergeCell ref="B89"/>
-    <mergeCell ref="B104"/>
-    <mergeCell ref="B79"/>
-    <mergeCell ref="B32"/>
-    <mergeCell ref="B106:B157"/>
-    <mergeCell ref="B26"/>
-    <mergeCell ref="B97"/>
-    <mergeCell ref="B153"/>
-    <mergeCell ref="B106"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="B129"/>
-    <mergeCell ref="B134"/>
+    <mergeCell ref="B237"/>
+    <mergeCell ref="B185"/>
     <mergeCell ref="B16"/>
-    <mergeCell ref="B81"/>
-    <mergeCell ref="B90"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="B121"/>
+    <mergeCell ref="B301"/>
     <mergeCell ref="B122"/>
-    <mergeCell ref="B71"/>
-    <mergeCell ref="B131"/>
     <mergeCell ref="B105"/>
+    <mergeCell ref="B276"/>
     <mergeCell ref="B43"/>
     <mergeCell ref="B18"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="B52"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="B42"/>
+    <mergeCell ref="B214"/>
+    <mergeCell ref="B303"/>
     <mergeCell ref="B107"/>
-    <mergeCell ref="B60"/>
+    <mergeCell ref="B278"/>
     <mergeCell ref="B57"/>
-    <mergeCell ref="B148"/>
-    <mergeCell ref="B44"/>
-    <mergeCell ref="B53"/>
-    <mergeCell ref="B34"/>
-    <mergeCell ref="B28"/>
-    <mergeCell ref="B99"/>
-    <mergeCell ref="B37"/>
-    <mergeCell ref="B108"/>
+    <mergeCell ref="A224:A260"/>
+    <mergeCell ref="B171"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
